--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:F1"/>
+  <dimension ref="A0:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,65 +424,157 @@
     <row r="0">
       <c r="A0" t="inlineStr">
         <is>
-          <t>gameID</t>
+          <t>gQ9xLuRH</t>
         </is>
       </c>
       <c r="B0" t="inlineStr">
         <is>
-          <t>challenger</t>
-        </is>
-      </c>
-      <c r="C0" t="inlineStr">
-        <is>
-          <t>rating</t>
-        </is>
-      </c>
-      <c r="D0" t="inlineStr">
-        <is>
-          <t>wager</t>
-        </is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C0" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D0" t="n">
+        <v>100</v>
       </c>
       <c r="E0" t="inlineStr">
         <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F0" t="inlineStr">
-        <is>
-          <t>escrowID</t>
-        </is>
+          <t>https://lichess.org/gQ9xLuRH</t>
+        </is>
+      </c>
+      <c r="F0" t="n">
+        <v>2263</v>
       </c>
     </row>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>gameID</t>
+          <t>kVAJt85j</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>challenger</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>rating</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>wager</t>
-        </is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D1" t="n">
+        <v>100</v>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>escrowID</t>
-        </is>
+          <t>https://lichess.org/kVAJt85j</t>
+        </is>
+      </c>
+      <c r="F1" t="n">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>W26Ykr8M</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://lichess.org/W26Ykr8M</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>6ZBZX1lE</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://lichess.org/6ZBZX1lE</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>T5XjC3ky</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://lichess.org/T5XjC3ky</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2314</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1Y81gpYC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://lichess.org/1Y81gpYC</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2315</v>
       </c>
     </row>
   </sheetData>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:F5"/>
+  <dimension ref="A0:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="0">
       <c r="A0" t="inlineStr">
         <is>
-          <t>gQ9xLuRH</t>
+          <t>emGkGkKl</t>
         </is>
       </c>
       <c r="B0" t="inlineStr">
@@ -440,43 +440,49 @@
       </c>
       <c r="E0" t="inlineStr">
         <is>
-          <t>https://lichess.org/gQ9xLuRH</t>
+          <t>https://lichess.org/emGkGkKl</t>
         </is>
       </c>
       <c r="F0" t="n">
-        <v>2263</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>kVAJt85j</t>
+          <t>gameID</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C1" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D1" t="n">
-        <v>100</v>
+          <t>challenger</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>wager</t>
+        </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>https://lichess.org/kVAJt85j</t>
-        </is>
-      </c>
-      <c r="F1" t="n">
-        <v>2272</v>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>escrowID</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W26Ykr8M</t>
+          <t>p2LYrWLC</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -492,17 +498,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://lichess.org/W26Ykr8M</t>
+          <t>https://lichess.org/p2LYrWLC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2273</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6ZBZX1lE</t>
+          <t>oIOLTnRN</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -518,17 +524,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://lichess.org/6ZBZX1lE</t>
+          <t>https://lichess.org/oIOLTnRN</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2309</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>T5XjC3ky</t>
+          <t>NHiX7o3n</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -544,17 +550,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://lichess.org/T5XjC3ky</t>
+          <t>https://lichess.org/NHiX7o3n</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2314</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1Y81gpYC</t>
+          <t>YVTmakze</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -570,11 +576,89 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://lichess.org/1Y81gpYC</t>
+          <t>https://lichess.org/YVTmakze</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2315</v>
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>gcDcW4K8</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D6" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://lichess.org/gcDcW4K8</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>8dQmNTlC</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://lichess.org/8dQmNTlC</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>532PWje3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://lichess.org/532PWje3</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2566</v>
       </c>
     </row>
   </sheetData>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:F8"/>
+  <dimension ref="A0:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,27 +424,33 @@
     <row r="0">
       <c r="A0" t="inlineStr">
         <is>
-          <t>emGkGkKl</t>
+          <t>gameID</t>
         </is>
       </c>
       <c r="B0" t="inlineStr">
         <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C0" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D0" t="n">
-        <v>100</v>
+          <t>challenger</t>
+        </is>
+      </c>
+      <c r="C0" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+      <c r="D0" t="inlineStr">
+        <is>
+          <t>wager</t>
+        </is>
       </c>
       <c r="E0" t="inlineStr">
         <is>
-          <t>https://lichess.org/emGkGkKl</t>
-        </is>
-      </c>
-      <c r="F0" t="n">
-        <v>2317</v>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F0" t="inlineStr">
+        <is>
+          <t>escrowID</t>
+        </is>
       </c>
     </row>
     <row r="1">
@@ -478,187 +484,10 @@
           <t>escrowID</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>p2LYrWLC</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://lichess.org/p2LYrWLC</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2559</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>oIOLTnRN</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://lichess.org/oIOLTnRN</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2560</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>NHiX7o3n</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://lichess.org/NHiX7o3n</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2561</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>YVTmakze</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://lichess.org/YVTmakze</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>gcDcW4K8</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D6" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://lichess.org/gcDcW4K8</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2564</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>8dQmNTlC</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://lichess.org/8dQmNTlC</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2565</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>532PWje3</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://lichess.org/532PWje3</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2566</v>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>accepted?</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:G1"/>
+  <dimension ref="A0:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,33 +424,30 @@
     <row r="0">
       <c r="A0" t="inlineStr">
         <is>
-          <t>gameID</t>
+          <t>DTZIC6Yj</t>
         </is>
       </c>
       <c r="B0" t="inlineStr">
         <is>
-          <t>challenger</t>
-        </is>
-      </c>
-      <c r="C0" t="inlineStr">
-        <is>
-          <t>rating</t>
-        </is>
-      </c>
-      <c r="D0" t="inlineStr">
-        <is>
-          <t>wager</t>
-        </is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C0" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D0" t="n">
+        <v>200</v>
       </c>
       <c r="E0" t="inlineStr">
         <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F0" t="inlineStr">
-        <is>
-          <t>escrowID</t>
-        </is>
+          <t>https://lichess.org/DTZIC6Yj</t>
+        </is>
+      </c>
+      <c r="F0" t="n">
+        <v>2879</v>
+      </c>
+      <c r="G0" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="1">
@@ -487,6 +484,79 @@
       <c r="G1" t="inlineStr">
         <is>
           <t>accepted?</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>accepter</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>O8X0smRx</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D2" t="n">
+        <v>120</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://lichess.org/O8X0smRx</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>2883</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>thorn</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NAFalFij</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D3" t="n">
+        <v>130</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://lichess.org/NAFalFij</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>2884</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>thorn</t>
         </is>
       </c>
     </row>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:H3"/>
+  <dimension ref="A0:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,6 +560,176 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>7b1DtX5u</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D4" t="n">
+        <v>170</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://lichess.org/7b1DtX5u</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>2886</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>newguy</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GHSOa063</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D5" t="n">
+        <v>140</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://lichess.org/GHSOa063</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2887</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>BLANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>tXRhbtBp</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D6" t="n">
+        <v>180</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://lichess.org/tXRhbtBp</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2889</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>h3KmFj3w</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D7" t="n">
+        <v>210</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://lichess.org/h3KmFj3w</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>2890</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>IJQleUwj</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://lichess.org/IJQleUwj</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>2912</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:H8"/>
+  <dimension ref="A0:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -620,7 +620,7 @@
         <v>2887</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>BLANK</t>
         </is>
       </c>
     </row>
@@ -688,11 +688,11 @@
         <v>2890</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>BLANK</t>
         </is>
       </c>
     </row>
@@ -725,6 +725,176 @@
         <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>BLANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pKRQ9wHY</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D9" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://lichess.org/pKRQ9wHY</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>2933</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>fSScx9Zt</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://lichess.org/fSScx9Zt</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2934</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>BLANK</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sIEm51BU</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D11" t="n">
+        <v>200</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://lichess.org/sIEm51BU</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2935</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6KEelV8V</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://lichess.org/6KEelV8V</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2937</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>VlhZEAIs</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://lichess.org/VlhZEAIs</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>2938</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>blank</t>
         </is>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:H13"/>
+  <dimension ref="A0:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,6 +900,40 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1077ngjy</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D14" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://lichess.org/1077ngjy</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>2992</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:H14"/>
+  <dimension ref="A0:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>O8X0smRx</t>
+          <t>oXJJmvT2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -511,424 +511,16 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://lichess.org/O8X0smRx</t>
+          <t>https://lichess.org/oXJJmvT2</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2883</v>
+        <v>3023</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
-        <is>
-          <t>thorn</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NAFalFij</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D3" t="n">
-        <v>130</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://lichess.org/NAFalFij</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2884</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>thorn</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>7b1DtX5u</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D4" t="n">
-        <v>170</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://lichess.org/7b1DtX5u</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2886</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>newguy</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GHSOa063</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D5" t="n">
-        <v>140</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://lichess.org/GHSOa063</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2887</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>BLANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>tXRhbtBp</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D6" t="n">
-        <v>180</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://lichess.org/tXRhbtBp</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2889</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>BLANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>h3KmFj3w</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D7" t="n">
-        <v>210</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://lichess.org/h3KmFj3w</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2890</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>BLANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>IJQleUwj</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://lichess.org/IJQleUwj</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2912</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>BLANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>pKRQ9wHY</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://lichess.org/pKRQ9wHY</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2933</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>fSScx9Zt</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D10" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://lichess.org/fSScx9Zt</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2934</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>BLANK</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>sIEm51BU</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D11" t="n">
-        <v>200</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>https://lichess.org/sIEm51BU</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2935</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>6KEelV8V</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>https://lichess.org/6KEelV8V</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2937</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>VlhZEAIs</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://lichess.org/VlhZEAIs</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2938</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>1077ngjy</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D14" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://lichess.org/1077ngjy</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2992</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>blank</t>
         </is>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:H2"/>
+  <dimension ref="A0:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,6 +526,40 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ABxocmbB</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://lichess.org/ABxocmbB</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3024</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,13 +16,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +39,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -44,13 +56,28 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -129,10 +156,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -170,69 +197,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,54 +285,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -313,7 +341,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -322,7 +350,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,7 +359,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -339,10 +367,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -371,7 +399,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -384,13 +412,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -410,92 +437,73 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
+  </cols>
   <sheetData>
-    <row r="0">
-      <c r="A0" t="inlineStr">
-        <is>
-          <t>DTZIC6Yj</t>
-        </is>
-      </c>
-      <c r="B0" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C0" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E0" t="inlineStr">
-        <is>
-          <t>https://lichess.org/DTZIC6Yj</t>
-        </is>
-      </c>
-      <c r="F0" t="n">
-        <v>2879</v>
-      </c>
-      <c r="G0" t="b">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>gameID</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>challenger</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>wager</t>
+        </is>
+      </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>escrowID</t>
+        </is>
+      </c>
+      <c r="G1" s="4" t="inlineStr">
+        <is>
+          <t>accepted?</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>accepter</t>
+        </is>
       </c>
     </row>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>gameID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>challenger</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>rating</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>wager</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>escrowID</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>accepted?</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>accepter</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="2" ht="18.75" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>oXJJmvT2</t>
+          <t>EtNcR4aw</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -511,22 +519,90 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://lichess.org/oXJJmvT2</t>
+          <t>https://lichess.org/EtNcR4aw</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3023</v>
+        <v>3334</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>testact1112</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MeBW4xMt</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1818</v>
+      </c>
+      <c r="D3" t="n">
+        <v>130</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://lichess.org/MeBW4xMt</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3335</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>testact1112</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>g0WPSwu8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RichDogeyBoy</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D4" t="n">
+        <v>140</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://lichess.org/g0WPSwu8</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>3338</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>dogeyboy19</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EtNcR4aw</t>
+          <t>WTZA1hGS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -519,25 +519,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://lichess.org/EtNcR4aw</t>
+          <t>https://lichess.org/WTZA1hGS</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3334</v>
+        <v>3544</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>testact1112</t>
+          <t>dogeyboy19</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MeBW4xMt</t>
+          <t>XO6VPhIp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -549,15 +549,15 @@
         <v>1818</v>
       </c>
       <c r="D3" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://lichess.org/MeBW4xMt</t>
+          <t>https://lichess.org/XO6VPhIp</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3335</v>
+        <v>3550</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
@@ -571,34 +571,102 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>g0WPSwu8</t>
+          <t>SXDPZWlv</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>RichDogeyBoy</t>
+          <t>trashboatsr</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1500</v>
+        <v>1818</v>
       </c>
       <c r="D4" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://lichess.org/g0WPSwu8</t>
+          <t>https://lichess.org/SXDPZWlv</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3338</v>
+        <v>3829</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>dogeyboy19</t>
+          <t>testact1112</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GsXUmezV</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1855</v>
+      </c>
+      <c r="D5" t="n">
+        <v>40</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://lichess.org/GsXUmezV</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>3968</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>testact1112</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ZRYpCDjF</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://lichess.org/ZRYpCDjF</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3985</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>blank</t>
         </is>
       </c>
     </row>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -503,7 +503,7 @@
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WTZA1hGS</t>
+          <t>jv96h2GS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -512,32 +512,32 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1818</v>
+        <v>1890</v>
       </c>
       <c r="D2" t="n">
-        <v>120</v>
+        <v>3000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://lichess.org/WTZA1hGS</t>
+          <t>https://lichess.org/jv96h2GS</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3544</v>
+        <v>3986</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>dogeyboy19</t>
+          <t>blank</t>
         </is>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XO6VPhIp</t>
+          <t>X5WtGeAj</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -546,32 +546,32 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1818</v>
+        <v>1890</v>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>3000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://lichess.org/XO6VPhIp</t>
+          <t>https://lichess.org/X5WtGeAj</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3550</v>
+        <v>3989</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>testact1112</t>
+          <t>blank</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SXDPZWlv</t>
+          <t>XkJfV0BB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -580,32 +580,32 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1818</v>
+        <v>1890</v>
       </c>
       <c r="D4" t="n">
         <v>10</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://lichess.org/SXDPZWlv</t>
+          <t>https://lichess.org/XkJfV0BB</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3829</v>
+        <v>3996</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>testact1112</t>
+          <t>blank</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GsXUmezV</t>
+          <t>RRS5BV5f</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -614,32 +614,32 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1855</v>
+        <v>1890</v>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://lichess.org/GsXUmezV</t>
+          <t>https://lichess.org/RRS5BV5f</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3968</v>
+        <v>3997</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>testact1112</t>
+          <t>blank</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ZRYpCDjF</t>
+          <t>rmlqNkF2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -655,11 +655,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://lichess.org/ZRYpCDjF</t>
+          <t>https://lichess.org/rmlqNkF2</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3985</v>
+        <v>4000</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,176 +500,9 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>jv96h2GS</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://lichess.org/jv96h2GS</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>3986</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>X5WtGeAj</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://lichess.org/X5WtGeAj</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3989</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>XkJfV0BB</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://lichess.org/XkJfV0BB</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3996</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>RRS5BV5f</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://lichess.org/RRS5BV5f</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3997</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>rmlqNkF2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://lichess.org/rmlqNkF2</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
-    </row>
+    <row r="2" ht="18.75" customHeight="1"/>
+    <row r="3" ht="18.75" customHeight="1"/>
+    <row r="4" ht="18.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,40 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1"/>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>zUcTfQ2v</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://lichess.org/zUcTfQ2v</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4001</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+    </row>
     <row r="3" ht="18.75" customHeight="1"/>
     <row r="4" ht="18.75" customHeight="1"/>
   </sheetData>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +534,40 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1"/>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>hLvGUlMc</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://lichess.org/hLvGUlMc</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4002</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+    </row>
     <row r="4" ht="18.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,13 +16,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +45,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -44,13 +62,31 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -129,10 +165,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -170,69 +206,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -256,54 +294,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -313,7 +350,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -322,7 +359,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -331,7 +368,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -339,10 +376,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -371,7 +408,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -384,13 +421,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -410,92 +446,73 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A0:H2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="27.29071428571428" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
+  </cols>
   <sheetData>
-    <row r="0">
-      <c r="A0" t="inlineStr">
-        <is>
-          <t>DTZIC6Yj</t>
-        </is>
-      </c>
-      <c r="B0" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C0" t="n">
-        <v>1818</v>
-      </c>
-      <c r="D0" t="n">
-        <v>200</v>
-      </c>
-      <c r="E0" t="inlineStr">
-        <is>
-          <t>https://lichess.org/DTZIC6Yj</t>
-        </is>
-      </c>
-      <c r="F0" t="n">
-        <v>2879</v>
-      </c>
-      <c r="G0" t="b">
-        <v>0</v>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>gameID</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>challenger</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rating</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>wager</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>escrowID</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>accepted?</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>accepter</t>
+        </is>
       </c>
     </row>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>gameID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>challenger</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>rating</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>wager</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>escrowID</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>accepted?</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>accepter</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="2" ht="18.75" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jgzI4qnX</t>
+          <t>xpBdZrrG</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -507,15 +524,15 @@
         <v>1890</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://lichess.org/jgzI4qnX</t>
+          <t>https://lichess.org/xpBdZrrG</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4003</v>
+        <v>4038</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -526,7 +543,9 @@
         </is>
       </c>
     </row>
+    <row r="3" ht="18.75" customHeight="1"/>
+    <row r="4" ht="18.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -512,7 +512,7 @@
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>xpBdZrrG</t>
+          <t>Fd2JcWFL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -524,15 +524,15 @@
         <v>1890</v>
       </c>
       <c r="D2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://lichess.org/xpBdZrrG</t>
+          <t>https://lichess.org/Fd2JcWFL</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4038</v>
+        <v>4040</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,40 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1"/>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>mna6nw74</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://lichess.org/mna6nw74</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4041</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+    </row>
     <row r="4" ht="18.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +577,40 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="18.75" customHeight="1"/>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>irBHYEJS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://lichess.org/irBHYEJS</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>4042</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,7 +512,7 @@
     <row r="2" ht="18.75" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fd2JcWFL</t>
+          <t>bvarNUA0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -528,11 +528,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://lichess.org/Fd2JcWFL</t>
+          <t>https://lichess.org/bvarNUA0</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4040</v>
+        <v>4087</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -543,74 +543,8 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>mna6nw74</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D3" t="n">
-        <v>20</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://lichess.org/mna6nw74</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4041</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>irBHYEJS</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://lichess.org/irBHYEJS</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4042</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
-    </row>
+    <row r="3" ht="18.75" customHeight="1"/>
+    <row r="4" ht="18.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,12 +28,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -64,18 +58,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -449,7 +440,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,23 +448,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
-    <col width="27.29071428571428" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="27.29071428571428" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>gameID</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>challenger</t>
         </is>
@@ -488,7 +480,7 @@
           <t>wager</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -498,53 +490,63 @@
           <t>escrowID</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>accepted?</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>accepter</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>readyStatus</t>
+        </is>
+      </c>
     </row>
-    <row r="2" ht="18.75" customHeight="1">
+    <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>bvarNUA0</t>
+          <t>xxjKVrHm</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>trashboatsr</t>
+          <t>RichDogeyBoy</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1890</v>
+        <v>1500</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://lichess.org/bvarNUA0</t>
+          <t>https://lichess.org/xxjKVrHm</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4087</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
+        <v>4155</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>blank</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
-    <row r="3" ht="18.75" customHeight="1"/>
-    <row r="4" ht="18.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -509,41 +509,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>xxjKVrHm</t>
+          <t>L3w9gqWk</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RichDogeyBoy</t>
+          <t>trashboatsr</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1500</v>
+        <v>1890</v>
       </c>
       <c r="D2" t="n">
         <v>15</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://lichess.org/xxjKVrHm</t>
+          <t>https://lichess.org/L3w9gqWk</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4155</v>
+        <v>4157</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>COMPLETED</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>upland999</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>RESOLVING</t>
         </is>
       </c>
     </row>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,47 +506,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>L3w9gqWk</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://lichess.org/L3w9gqWk</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4157</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>COMPLETED</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>upland999</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>RESOLVING</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,6 +506,47 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>t27TflGL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>trashboatsr</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://lichess.org/t27TflGL</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4159</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>blank</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -509,7 +509,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t27TflGL</t>
+          <t>nAHc8aTw</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,15 +521,15 @@
         <v>1890</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://lichess.org/t27TflGL</t>
+          <t>https://lichess.org/nAHc8aTw</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4159</v>
+        <v>4160</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -509,27 +509,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>nAHc8aTw</t>
+          <t>m5iuLmuW</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>trashboatsr</t>
+          <t>RichDogeyBoy</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1890</v>
+        <v>1500</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://lichess.org/nAHc8aTw</t>
+          <t>https://lichess.org/m5iuLmuW</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4160</v>
+        <v>4169</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>

--- a/XL Spreadsheets/ChallengeMap.xlsx
+++ b/XL Spreadsheets/ChallengeMap.xlsx
@@ -1,39 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>gameID</t>
+  </si>
+  <si>
+    <t>challenger</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>wager</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>escrowID</t>
+  </si>
+  <si>
+    <t>accepted?</t>
+  </si>
+  <si>
+    <t>accepter</t>
+  </si>
+  <si>
+    <t>readyStatus</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,98 +88,36 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -435,116 +405,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
-    <col width="27.29071428571428" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="4" min="9" max="9"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="27.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>gameID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>challenger</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rating</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>wager</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>link</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>escrowID</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>accepted?</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>accepter</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>readyStatus</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>t27TflGL</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>trashboatsr</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1890</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://lichess.org/t27TflGL</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4159</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>blank</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
